--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62769.74090902224</v>
+        <v>-61422.31236233485</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9886255.482249361</v>
+        <v>10095312.09622575</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22080131.22488754</v>
+        <v>22050385.14120355</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4181234.753874648</v>
+        <v>4181876.51809329</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.97480228639999</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K11" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L11" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N11" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O11" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P11" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K12" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L12" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L13" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M13" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N13" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O13" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K14" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L14" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M14" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N14" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O14" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P14" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K15" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L15" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L16" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M16" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N16" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O16" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P16" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K17" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L17" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M17" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N17" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O17" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P17" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K18" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L18" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L19" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M19" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N19" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O19" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P19" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K20" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L20" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M20" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N20" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O20" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P20" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K21" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L21" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L22" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M22" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N22" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O22" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P22" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K23" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L23" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M23" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N23" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O23" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P23" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K24" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L24" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L25" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M25" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N25" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O25" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P25" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K26" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M26" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N26" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O26" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P26" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K27" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L27" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>70.6365977934563</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L28" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M28" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N28" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O28" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P28" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K29" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L29" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M29" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N29" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O29" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P29" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K30" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L30" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L31" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M31" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N31" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O31" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P31" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.97480228639999</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K32" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M32" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N32" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O32" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P32" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K33" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L33" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L34" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M34" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N34" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O34" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P34" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K35" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L35" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M35" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N35" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O35" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P35" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K36" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L36" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L37" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M37" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N37" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O37" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P37" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K38" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L38" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M38" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N38" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O38" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P38" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K39" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L39" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L40" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M40" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N40" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O40" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P40" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K41" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L41" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M41" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N41" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O41" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P41" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K42" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L42" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>70.6365977934563</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L43" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M43" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N43" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O43" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P43" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H11" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I11" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S11" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H12" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I12" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.94669922618534</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S12" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T12" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I13" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J13" t="n">
-        <v>57.83529218611378</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.08791033046782</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R13" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S13" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T13" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H14" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I14" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S14" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H15" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I15" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S15" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T15" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I16" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J16" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R16" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S16" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H17" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I17" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S17" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H18" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I18" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S18" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T18" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I19" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J19" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R19" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S19" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H20" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I20" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S20" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H21" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I21" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S21" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T21" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I22" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R22" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S22" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H23" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I23" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S23" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H24" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I24" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S24" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T24" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I25" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R25" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S25" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I26" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S26" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H27" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I27" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>62.94669922618533</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S27" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T27" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I28" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J28" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R28" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S28" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H29" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I29" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S29" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H30" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I30" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S30" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T30" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I31" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J31" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R31" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S31" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H32" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I32" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S32" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H33" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I33" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.94669922618534</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S33" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T33" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I34" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J34" t="n">
-        <v>57.83529218611378</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.08791033046782</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R34" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S34" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I35" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S35" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H36" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I36" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S36" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I37" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J37" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R37" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S37" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H38" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I38" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S38" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H39" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I39" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S39" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T39" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I40" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J40" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R40" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S40" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H41" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I41" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S41" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H42" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I42" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.94669922618533</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S42" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T42" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I43" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J43" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R43" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S43" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362062.9988764683</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362370.264304207</v>
+        <v>362157.4093500669</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>64985.55566641793</v>
+        <v>65322.30966924084</v>
       </c>
       <c r="F2" t="n">
-        <v>64985.55566641794</v>
+        <v>65322.30966924085</v>
       </c>
       <c r="G2" t="n">
-        <v>64985.55566641792</v>
+        <v>65322.30966924084</v>
       </c>
       <c r="H2" t="n">
-        <v>64985.55566641792</v>
+        <v>65322.30966924084</v>
       </c>
       <c r="I2" t="n">
-        <v>64985.55566641792</v>
+        <v>65322.30966924085</v>
       </c>
       <c r="J2" t="n">
-        <v>64985.55566641794</v>
+        <v>65322.30966924085</v>
       </c>
       <c r="K2" t="n">
-        <v>64985.55566641794</v>
+        <v>65322.30966924085</v>
       </c>
       <c r="L2" t="n">
-        <v>64985.55566641793</v>
+        <v>65322.30966924086</v>
       </c>
       <c r="M2" t="n">
-        <v>64985.55566641793</v>
+        <v>65322.30966924086</v>
       </c>
       <c r="N2" t="n">
-        <v>64985.55566641793</v>
+        <v>65322.30966924085</v>
       </c>
       <c r="O2" t="n">
-        <v>64985.55566641793</v>
+        <v>65322.30966924086</v>
       </c>
       <c r="P2" t="n">
-        <v>65754.53449505377</v>
+        <v>65322.30966924086</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223857.5139821999</v>
+        <v>238347.4490273461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27411.46577882611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="F4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="G4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="H4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="I4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="J4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="K4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="L4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="M4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="N4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="O4" t="n">
-        <v>13504.10939295352</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="P4" t="n">
-        <v>9686.852012554569</v>
+        <v>11792.29385141108</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="F5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="G5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="H5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="I5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="J5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="K5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="L5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="M5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="N5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="O5" t="n">
-        <v>6074.278792600922</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>6467.457040608691</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.1631403178</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="E6" t="n">
-        <v>-178450.3465013365</v>
+        <v>-205872.5427086193</v>
       </c>
       <c r="F6" t="n">
-        <v>45407.1674808635</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="G6" t="n">
-        <v>45407.16748086349</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="H6" t="n">
-        <v>45407.16748086347</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="I6" t="n">
-        <v>45407.16748086349</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="J6" t="n">
-        <v>45407.1674808635</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="K6" t="n">
-        <v>45407.1674808635</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="L6" t="n">
-        <v>45407.16748086349</v>
+        <v>32474.90631872681</v>
       </c>
       <c r="M6" t="n">
-        <v>45407.1674808635</v>
+        <v>32474.90631872681</v>
       </c>
       <c r="N6" t="n">
-        <v>45407.16748086349</v>
+        <v>32474.9063187268</v>
       </c>
       <c r="O6" t="n">
-        <v>45407.1674808635</v>
+        <v>32474.90631872681</v>
       </c>
       <c r="P6" t="n">
-        <v>21684.11414041576</v>
+        <v>32474.90631872681</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="G3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="H3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="I3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="J3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="K3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="L3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="M3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="N3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>296.6723413123253</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.18457663561503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H11" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J11" t="n">
-        <v>95.07110224028629</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K11" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L11" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N11" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O11" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P11" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S11" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T11" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H12" t="n">
-        <v>5.788281937557224</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I12" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J12" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K12" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L12" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R12" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S12" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T12" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H13" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I13" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J13" t="n">
-        <v>35.523887930559</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L13" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M13" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N13" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O13" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.07413292122656</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R13" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T13" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H14" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I14" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K14" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L14" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M14" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N14" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O14" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P14" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R14" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S14" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T14" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H15" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I15" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J15" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K15" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L15" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R15" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S15" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T15" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H16" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I16" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J16" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K16" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L16" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M16" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N16" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O16" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P16" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R16" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S16" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T16" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H17" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I17" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J17" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K17" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L17" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M17" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N17" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P17" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R17" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S17" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T17" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H18" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I18" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J18" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K18" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R18" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S18" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T18" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H19" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J19" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K19" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L19" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M19" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N19" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O19" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P19" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R19" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S19" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T19" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H20" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I20" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K20" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L20" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M20" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N20" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O20" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P20" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R20" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S20" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T20" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I21" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J21" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K21" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L21" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R21" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S21" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T21" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H22" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I22" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J22" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K22" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L22" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M22" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N22" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O22" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P22" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R22" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S22" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T22" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H23" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I23" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K23" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L23" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M23" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N23" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O23" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P23" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R23" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S23" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T23" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I24" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J24" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K24" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L24" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R24" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S24" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T24" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H25" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I25" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J25" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K25" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L25" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M25" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N25" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O25" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P25" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R25" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S25" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T25" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I26" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J26" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K26" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L26" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M26" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N26" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P26" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R26" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S26" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T26" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H27" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I27" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J27" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K27" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L27" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R27" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S27" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T27" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H28" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I28" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J28" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K28" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L28" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M28" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N28" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O28" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P28" t="n">
-        <v>60.77019480881533</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R28" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S28" t="n">
-        <v>8.756499056561861</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T28" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H29" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I29" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J29" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K29" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L29" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M29" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N29" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P29" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R29" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S29" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T29" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H30" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I30" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J30" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K30" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L30" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R30" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S30" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T30" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H31" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I31" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J31" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K31" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L31" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M31" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N31" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O31" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P31" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R31" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S31" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T31" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H32" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I32" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J32" t="n">
-        <v>95.07110224028629</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K32" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L32" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M32" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N32" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O32" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P32" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R32" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S32" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T32" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H33" t="n">
-        <v>5.788281937557224</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I33" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J33" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K33" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R33" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S33" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T33" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H34" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I34" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J34" t="n">
-        <v>35.523887930559</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K34" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L34" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M34" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N34" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O34" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P34" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.07413292122656</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R34" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S34" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T34" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H35" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I35" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K35" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L35" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M35" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N35" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O35" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P35" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R35" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S35" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T35" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H36" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I36" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J36" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K36" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R36" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S36" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T36" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H37" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I37" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J37" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K37" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L37" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M37" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N37" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O37" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P37" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R37" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S37" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T37" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H38" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I38" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J38" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L38" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M38" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N38" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O38" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P38" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R38" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S38" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T38" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H39" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I39" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J39" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K39" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R39" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S39" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T39" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H40" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I40" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J40" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K40" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L40" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M40" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N40" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O40" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P40" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R40" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S40" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T40" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H41" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I41" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K41" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L41" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M41" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N41" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P41" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R41" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S41" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T41" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H42" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I42" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J42" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K42" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L42" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R42" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S42" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T42" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H43" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I43" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J43" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K43" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L43" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M43" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N43" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O43" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P43" t="n">
-        <v>60.77019480881533</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R43" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S43" t="n">
-        <v>8.756499056561861</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61422.31236233485</v>
+        <v>49891.41193420943</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10095312.09622575</v>
+        <v>9838539.76499437</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22050385.14120355</v>
+        <v>22087121.9415115</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4181876.51809329</v>
+        <v>4181057.315746316</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K11" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L11" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M11" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N11" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O11" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P11" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K12" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L13" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M13" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N13" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O13" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P13" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K14" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L14" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M14" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N14" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O14" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P14" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K15" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L16" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M16" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N16" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O16" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P16" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K17" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L17" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M17" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N17" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O17" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P17" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K18" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L19" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M19" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N19" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O19" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P19" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K20" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L20" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M20" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N20" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O20" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P20" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K21" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L22" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M22" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N22" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O22" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P22" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K23" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L23" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M23" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N23" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O23" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P23" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K24" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L25" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M25" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N25" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O25" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P25" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K26" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L26" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M26" t="n">
-        <v>20.92686739226639</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N26" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O26" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P26" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.51262335026311</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>66.54876907979123</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K27" t="n">
-        <v>34.79817869043561</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>12.12044141380177</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>66.8579709251007</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L28" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M28" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N28" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O28" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P28" t="n">
-        <v>73.02425275703003</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K29" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L29" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M29" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N29" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O29" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P29" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K30" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L31" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M31" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N31" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O31" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P31" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K32" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L32" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M32" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N32" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O32" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P32" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K33" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L34" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M34" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N34" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O34" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P34" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K35" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L35" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M35" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N35" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O35" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P35" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q35" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K36" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L37" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M37" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N37" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O37" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P37" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K38" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L38" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M38" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N38" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O38" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P38" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K39" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L40" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M40" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N40" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O40" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P40" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K41" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L41" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M41" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N41" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O41" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P41" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K42" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L43" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M43" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N43" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O43" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P43" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>79.82100350776379</v>
+        <v>85.97480228639999</v>
       </c>
       <c r="K44" t="n">
-        <v>68.37996426625614</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L44" t="n">
-        <v>47.55688531513388</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M44" t="n">
-        <v>20.92686739226636</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N44" t="n">
-        <v>16.60507348116786</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O44" t="n">
-        <v>29.14966087982927</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P44" t="n">
-        <v>59.72805697682125</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q44" t="n">
-        <v>93.51262335026308</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>66.54876907979121</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K45" t="n">
-        <v>34.79817869043559</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>12.12044141380176</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.52562482607891</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>66.85797092510069</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L46" t="n">
-        <v>55.34730792350439</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M46" t="n">
-        <v>55.06478097631943</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N46" t="n">
-        <v>45.81856870604673</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O46" t="n">
-        <v>62.83913578423567</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P46" t="n">
-        <v>73.02425275703001</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H11" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I11" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S11" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H12" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I12" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S12" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H13" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I13" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J13" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R13" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S13" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H14" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I14" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S14" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H15" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I15" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S15" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H16" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I16" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J16" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R16" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S16" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H17" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I17" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S17" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H18" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I18" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S18" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H19" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I19" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J19" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R19" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S19" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H20" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I20" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S20" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H21" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I21" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S21" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H22" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I22" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J22" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R22" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S22" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H23" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I23" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S23" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H24" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I24" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S24" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H25" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I25" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J25" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R25" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S25" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H26" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I26" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>74.95115227296736</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S26" t="n">
-        <v>181.8424978167796</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H27" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I27" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>60.53808260908391</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S27" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H28" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I28" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J28" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R28" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S28" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H29" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I29" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S29" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H30" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I30" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S30" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H31" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I31" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J31" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R31" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S31" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H32" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I32" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S32" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H33" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I33" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S33" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H34" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I34" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J34" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R34" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S34" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H35" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I35" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S35" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I36" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S36" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H37" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I37" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J37" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R37" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S37" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H38" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I38" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S38" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I39" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S39" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H40" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I40" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J40" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R40" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S40" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H41" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I41" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S41" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I42" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S42" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H43" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I43" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J43" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R43" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S43" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1100848867438</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H44" t="n">
-        <v>327.2605483852552</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I44" t="n">
-        <v>164.496149114352</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>74.95115227296735</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S44" t="n">
-        <v>181.8424978167795</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8750126833486</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7053917498219</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0724961650838</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I45" t="n">
-        <v>67.42608682026646</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.5380826090839</v>
+        <v>62.94669922618534</v>
       </c>
       <c r="S45" t="n">
-        <v>159.8302714297086</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5926354715572</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8994001458834</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H46" t="n">
-        <v>157.4706880844321</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I46" t="n">
-        <v>139.362079762321</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J46" t="n">
-        <v>55.53588833985387</v>
+        <v>57.83529218611378</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.36451971353327</v>
+        <v>44.08791033046782</v>
       </c>
       <c r="R46" t="n">
-        <v>153.2386143258456</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S46" t="n">
-        <v>214.6933049501571</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6597533558751</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362157.4093500669</v>
+        <v>362062.9988764683</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="C2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="E2" t="n">
-        <v>65322.30966924084</v>
+        <v>64985.55566641793</v>
       </c>
       <c r="F2" t="n">
-        <v>65322.30966924085</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="G2" t="n">
-        <v>65322.30966924084</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="H2" t="n">
-        <v>65322.30966924084</v>
+        <v>64985.55566641792</v>
       </c>
       <c r="I2" t="n">
-        <v>65322.30966924085</v>
+        <v>64985.55566641792</v>
       </c>
       <c r="J2" t="n">
-        <v>65322.30966924085</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="K2" t="n">
-        <v>65322.30966924085</v>
+        <v>64985.55566641792</v>
       </c>
       <c r="L2" t="n">
-        <v>65322.30966924086</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="M2" t="n">
-        <v>65322.30966924086</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="N2" t="n">
-        <v>65322.30966924085</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="O2" t="n">
-        <v>65322.30966924086</v>
+        <v>64985.55566641794</v>
       </c>
       <c r="P2" t="n">
-        <v>65322.30966924086</v>
+        <v>64985.55566641793</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>238347.4490273461</v>
+        <v>223857.5139821999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="F4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="G4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="H4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="I4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="J4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="K4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="L4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="M4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="N4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="O4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
       <c r="P4" t="n">
-        <v>11792.29385141108</v>
+        <v>13504.10939295352</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="F5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="G5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="H5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="I5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="J5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="K5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="L5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="M5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="N5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="O5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
       <c r="P5" t="n">
-        <v>6467.457040608691</v>
+        <v>6074.278792600922</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728653</v>
       </c>
       <c r="C6" t="n">
-        <v>-32652.1631403178</v>
+        <v>-19016.55656728651</v>
       </c>
       <c r="D6" t="n">
-        <v>-32652.16314031781</v>
+        <v>-19016.55656728653</v>
       </c>
       <c r="E6" t="n">
-        <v>-205872.5427086193</v>
+        <v>-179912.1731472115</v>
       </c>
       <c r="F6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="G6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="H6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.3408349884</v>
       </c>
       <c r="I6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.3408349884</v>
       </c>
       <c r="J6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="K6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.3408349884</v>
       </c>
       <c r="L6" t="n">
-        <v>32474.90631872681</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="M6" t="n">
-        <v>32474.90631872681</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="N6" t="n">
-        <v>32474.9063187268</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="O6" t="n">
-        <v>32474.90631872681</v>
+        <v>43945.34083498841</v>
       </c>
       <c r="P6" t="n">
-        <v>32474.90631872681</v>
+        <v>43945.34083498841</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="F3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="G3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="H3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="I3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="J3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="K3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="L3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="M3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="N3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="O3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="P3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296.6723413123253</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H11" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I11" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J11" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K11" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L11" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M11" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N11" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O11" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P11" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R11" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S11" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T11" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H12" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I12" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J12" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K12" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R12" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S12" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T12" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H13" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I13" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J13" t="n">
-        <v>37.82329177681891</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K13" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L13" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M13" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N13" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O13" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P13" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R13" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S13" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H14" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I14" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J14" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K14" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L14" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M14" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N14" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O14" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P14" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q14" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R14" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S14" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T14" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H15" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I15" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J15" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K15" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R15" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S15" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T15" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H16" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I16" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J16" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K16" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L16" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M16" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N16" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O16" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P16" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R16" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S16" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T16" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H17" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I17" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J17" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K17" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L17" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M17" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N17" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O17" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P17" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R17" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S17" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T17" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H18" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I18" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J18" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K18" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R18" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S18" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T18" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H19" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I19" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J19" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K19" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L19" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M19" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N19" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O19" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P19" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R19" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S19" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H20" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I20" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J20" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K20" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L20" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M20" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N20" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O20" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P20" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R20" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S20" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T20" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H21" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I21" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J21" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K21" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R21" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S21" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T21" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H22" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I22" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J22" t="n">
-        <v>37.82329177681891</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K22" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L22" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M22" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N22" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O22" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P22" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R22" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S22" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T22" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H23" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I23" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J23" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K23" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L23" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M23" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N23" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O23" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P23" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R23" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S23" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T23" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H24" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I24" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J24" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K24" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R24" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S24" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T24" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H25" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I25" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J25" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K25" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L25" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M25" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N25" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O25" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P25" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R25" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S25" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T25" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H26" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I26" t="n">
-        <v>45.97974045605395</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J26" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K26" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L26" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M26" t="n">
-        <v>209.4193658350063</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O26" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P26" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R26" t="n">
-        <v>74.91796566818232</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S26" t="n">
-        <v>27.17757176946578</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T26" t="n">
-        <v>5.220836880782727</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.638125413388775</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H27" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I27" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J27" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K27" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R27" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S27" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T27" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H28" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I28" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J28" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K28" t="n">
-        <v>62.15528724543468</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L28" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M28" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N28" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O28" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P28" t="n">
-        <v>64.70375129211759</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R28" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S28" t="n">
-        <v>9.3232930868152</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T28" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H29" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I29" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J29" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K29" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L29" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M29" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O29" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P29" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R29" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S29" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T29" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H30" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I30" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J30" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K30" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R30" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S30" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T30" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H31" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I31" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J31" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K31" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L31" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M31" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N31" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O31" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P31" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R31" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S31" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T31" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H32" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I32" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J32" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K32" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L32" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M32" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O32" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P32" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q32" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R32" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S32" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T32" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H33" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I33" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J33" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K33" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R33" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S33" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T33" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H34" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I34" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J34" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K34" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L34" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M34" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N34" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O34" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P34" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R34" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S34" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H35" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I35" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J35" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K35" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L35" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M35" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N35" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O35" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P35" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q35" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R35" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S35" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T35" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H36" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I36" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J36" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K36" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R36" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S36" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T36" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H37" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I37" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J37" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K37" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L37" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M37" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N37" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O37" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P37" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R37" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S37" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T37" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H38" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I38" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J38" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K38" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L38" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M38" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N38" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O38" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P38" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q38" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R38" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S38" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T38" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H39" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I39" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J39" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K39" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R39" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S39" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T39" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H40" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I40" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J40" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K40" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L40" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M40" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N40" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O40" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P40" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R40" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S40" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T40" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H41" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I41" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J41" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K41" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L41" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M41" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N41" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O41" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P41" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q41" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R41" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S41" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T41" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H42" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I42" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J42" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K42" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R42" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S42" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T42" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H43" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I43" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J43" t="n">
-        <v>37.82329177681891</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K43" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L43" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M43" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N43" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O43" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P43" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R43" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S43" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T43" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.192652628391256</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H44" t="n">
-        <v>12.21425373051196</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I44" t="n">
-        <v>45.97974045605396</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J44" t="n">
-        <v>101.2249010189225</v>
+        <v>95.07110224028629</v>
       </c>
       <c r="K44" t="n">
-        <v>151.7098867787244</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L44" t="n">
-        <v>188.2095296548534</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M44" t="n">
-        <v>209.4193658350064</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N44" t="n">
-        <v>212.8079901154231</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O44" t="n">
-        <v>200.9485505418575</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P44" t="n">
-        <v>171.5049387784483</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q44" t="n">
-        <v>128.7930665241864</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R44" t="n">
-        <v>74.91796566818233</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S44" t="n">
-        <v>27.17757176946579</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T44" t="n">
-        <v>5.220836880782728</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H45" t="n">
-        <v>6.162948071412645</v>
+        <v>5.788281937557224</v>
       </c>
       <c r="I45" t="n">
-        <v>21.97054603114862</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J45" t="n">
-        <v>60.28885758687547</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K45" t="n">
-        <v>103.0432602839234</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>121.8539660005285</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.45614925994261</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R45" t="n">
-        <v>39.61975154355923</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S45" t="n">
-        <v>11.85289967412921</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T45" t="n">
-        <v>2.572093223264404</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.03942971347109827</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5024595181125744</v>
       </c>
       <c r="H46" t="n">
-        <v>4.756484423007447</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I46" t="n">
-        <v>16.08839516493725</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J46" t="n">
-        <v>37.82329177681891</v>
+        <v>35.523887930559</v>
       </c>
       <c r="K46" t="n">
-        <v>62.15528724543469</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L46" t="n">
-        <v>79.5373683577339</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M46" t="n">
-        <v>83.86100297128563</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N46" t="n">
-        <v>81.86697575918646</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O46" t="n">
-        <v>75.61740266760712</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P46" t="n">
-        <v>64.7037512921176</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.79752353816112</v>
+        <v>42.07413292122656</v>
       </c>
       <c r="R46" t="n">
-        <v>24.05477705132394</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S46" t="n">
-        <v>9.323293086815202</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T46" t="n">
-        <v>2.28583607240644</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
